--- a/Examples/Data/Articles/ShowFormulasInsteadOfValues/.out.xlsx
+++ b/Examples/Data/Articles/ShowFormulasInsteadOfValues/.out.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Evaluation Warning" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Evaluation Warning" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
@@ -21,16 +21,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2014 Aspose Pty Ltd.</t>
+    <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2016 Aspose Pty Ltd.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -48,7 +54,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9.15"/>
+      <sz val="9.2"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -84,26 +90,26 @@
       <alignment vertical="center"/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment/>
       <protection/>
     </xf>
@@ -112,7 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
     </xf>
@@ -205,6 +211,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
@@ -220,12 +227,13 @@
         <a:solidFill>
           <a:srgbClr val="C0C0C0"/>
         </a:solidFill>
-        <a:ln w="3175">
+        <a:ln w="3175" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:floor>
     <c:sideWall>
@@ -233,12 +241,13 @@
         <a:solidFill>
           <a:srgbClr val="C0C0C0"/>
         </a:solidFill>
-        <a:ln w="3175">
+        <a:ln w="3175" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:sideWall>
     <c:backWall>
@@ -246,12 +255,13 @@
         <a:solidFill>
           <a:srgbClr val="C0C0C0"/>
         </a:solidFill>
-        <a:ln w="3175">
+        <a:ln w="3175" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:backWall>
     <c:plotArea>
@@ -277,18 +287,20 @@
             <a:solidFill>
               <a:srgbClr val="9999FF"/>
             </a:solidFill>
-            <a:ln w="12700">
+            <a:ln w="12700" cap="flat" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$A$1:$A$3</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
@@ -311,18 +323,20 @@
             <a:solidFill>
               <a:srgbClr val="993366"/>
             </a:solidFill>
-            <a:ln w="12700">
+            <a:ln w="12700" cap="flat" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$B$1:$B$3</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
@@ -339,78 +353,113 @@
           <c:shape val="pyramid"/>
         </c:ser>
         <c:shape val="pyramid"/>
-        <c:axId val="45523402"/>
-        <c:axId val="35287174"/>
+        <c:axId val="42074990"/>
+        <c:axId val="13270790"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="45523402"/>
+        <c:axId val="42074990"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:delete val="0"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="3175">
+          <a:ln w="3175" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="35287174"/>
+        <c:txPr>
+          <a:bodyPr vert="horz" rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="13270790"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35287174"/>
+        <c:axId val="13270790"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="3175">
+            <a:ln w="3175" cap="flat" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:delete val="0"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="3175">
+          <a:ln w="3175" cap="flat" cmpd="sng">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="45523402"/>
+        <c:txPr>
+          <a:bodyPr vert="horz" rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="42074990"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:dispUnits/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="C0C0C0"/>
         </a:solidFill>
-        <a:ln w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="808080"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
@@ -430,19 +479,20 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="3175">
+        <a:ln w="3175" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr vert="horz" rot="0"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" sz="915" b="0" i="0" u="none" baseline="0">
+            <a:defRPr lang="en-US" sz="920" b="0" i="0" u="none" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -456,17 +506,19 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
       <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
-    <a:ln w="3175">
+    <a:ln w="3175" cap="flat" cmpd="sng">
       <a:solidFill>
         <a:srgbClr val="000000"/>
       </a:solidFill>
       <a:prstDash val="solid"/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
   <c:txPr>
     <a:bodyPr vert="horz" rot="0"/>
@@ -488,7 +540,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -868,14 +920,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
       <c r="A1">
@@ -925,17 +977,18 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="9"/>
+  <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="5" ht="23.25" customHeight="1">
       <c r="A5" s="1" t="s">
